--- a/DATA/TREvBAL.xlsx
+++ b/DATA/TREvBAL.xlsx
@@ -65,8 +65,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,9 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +396,7 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,15 +1356,1373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="19" max="19" width="9.140625" style="2"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
+    <col min="23" max="23" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F1" s="3">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="J1" s="3">
+        <v>1.38888888888889E-2</v>
+      </c>
+      <c r="L1" s="3">
+        <v>1.7361111111111101E-2</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2.4305555555555601E-2</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2.7777777777777801E-2</v>
+      </c>
+      <c r="T1" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="V1" s="3">
+        <v>3.4722222222222203E-2</v>
+      </c>
+      <c r="X1" s="3">
+        <v>3.8194444444444399E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.38888888888889E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.7361111111111101E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2.43055555555555E-2</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3.1249999999999899E-2</v>
+      </c>
+      <c r="T2" s="3">
+        <v>3.4722222222222203E-2</v>
+      </c>
+      <c r="V2" s="3">
+        <v>3.8194444444444399E-2</v>
+      </c>
+      <c r="X2" s="3">
+        <v>4.1666666666666602E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <f>A3-$A3 + IF(A3-$A3&lt;0, 120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-$A3 + IF(C3-$A3&lt;0, 120,0)</f>
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3-$A3 + IF(E3-$A3&lt;0, 120,0)</f>
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3-$A3 + IF(G3-$A3&lt;0, 120,0)</f>
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>81</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3-$A3 + IF(I3-$A3&lt;0, 120,0)</f>
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>77</v>
+      </c>
+      <c r="L3" s="2">
+        <f>K3-$A3 + IF(K3-$A3&lt;0, 120,0)</f>
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>77</v>
+      </c>
+      <c r="N3" s="2">
+        <f>M3-$A3 + IF(M3-$A3&lt;0, 120,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>78</v>
+      </c>
+      <c r="P3" s="2">
+        <f>O3-$A3 + IF(O3-$A3&lt;0, 120,0)</f>
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>82</v>
+      </c>
+      <c r="R3" s="2">
+        <f>Q3-$A3 + IF(Q3-$A3&lt;0, 120,0)</f>
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>86</v>
+      </c>
+      <c r="T3" s="2">
+        <f>S3-$A3 + IF(S3-$A3&lt;0, 120,0)</f>
+        <v>26</v>
+      </c>
+      <c r="U3">
+        <v>83</v>
+      </c>
+      <c r="V3" s="2">
+        <f>U3-$A3 + IF(U3-$A3&lt;0, 120,0)</f>
+        <v>23</v>
+      </c>
+      <c r="W3">
+        <v>85</v>
+      </c>
+      <c r="X3" s="2">
+        <f>W3-$A3 + IF(W3-$A3&lt;0, 120,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:D10" si="0">A4-$A4 + IF(A4-$A4&lt;0, 120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4" si="1">E4-$A4 + IF(E4-$A4&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4" si="2">G4-$A4 + IF(G4-$A4&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4" si="3">I4-$A4 + IF(I4-$A4&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4" si="4">K4-$A4 + IF(K4-$A4&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4" si="5">M4-$A4 + IF(M4-$A4&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4" si="6">O4-$A4 + IF(O4-$A4&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4" si="7">Q4-$A4 + IF(Q4-$A4&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4" si="8">S4-$A4 + IF(S4-$A4&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" ref="V4" si="9">U4-$A4 + IF(U4-$A4&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" ref="X4" si="10">W4-$A4 + IF(W4-$A4&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5" si="11">E5-$A5 + IF(E5-$A5&lt;0, 120,0)</f>
+        <v>117</v>
+      </c>
+      <c r="G5">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5" si="12">G5-$A5 + IF(G5-$A5&lt;0, 120,0)</f>
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5" si="13">I5-$A5 + IF(I5-$A5&lt;0, 120,0)</f>
+        <v>113</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5" si="14">K5-$A5 + IF(K5-$A5&lt;0, 120,0)</f>
+        <v>90</v>
+      </c>
+      <c r="M5">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5" si="15">M5-$A5 + IF(M5-$A5&lt;0, 120,0)</f>
+        <v>92</v>
+      </c>
+      <c r="O5">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5" si="16">O5-$A5 + IF(O5-$A5&lt;0, 120,0)</f>
+        <v>93</v>
+      </c>
+      <c r="Q5">
+        <v>62</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5" si="17">Q5-$A5 + IF(Q5-$A5&lt;0, 120,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>60</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" ref="T5" si="18">S5-$A5 + IF(S5-$A5&lt;0, 120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>61</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" ref="V5" si="19">U5-$A5 + IF(U5-$A5&lt;0, 120,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>56</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" ref="X5" si="20">W5-$A5 + IF(W5-$A5&lt;0, 120,0)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6" si="21">E6-$A6 + IF(E6-$A6&lt;0, 120,0)</f>
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6" si="22">G6-$A6 + IF(G6-$A6&lt;0, 120,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6" si="23">I6-$A6 + IF(I6-$A6&lt;0, 120,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>76</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L6" si="24">K6-$A6 + IF(K6-$A6&lt;0, 120,0)</f>
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>77</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6" si="25">M6-$A6 + IF(M6-$A6&lt;0, 120,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>72</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6" si="26">O6-$A6 + IF(O6-$A6&lt;0, 120,0)</f>
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>74</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6" si="27">Q6-$A6 + IF(Q6-$A6&lt;0, 120,0)</f>
+        <v>14</v>
+      </c>
+      <c r="S6">
+        <v>75</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" ref="T6" si="28">S6-$A6 + IF(S6-$A6&lt;0, 120,0)</f>
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>78</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" ref="V6" si="29">U6-$A6 + IF(U6-$A6&lt;0, 120,0)</f>
+        <v>18</v>
+      </c>
+      <c r="W6">
+        <v>73</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" ref="X6" si="30">W6-$A6 + IF(W6-$A6&lt;0, 120,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7" si="31">E7-$A7 + IF(E7-$A7&lt;0, 120,0)</f>
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="32">G7-$A7 + IF(G7-$A7&lt;0, 120,0)</f>
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7" si="33">I7-$A7 + IF(I7-$A7&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7" si="34">K7-$A7 + IF(K7-$A7&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7" si="35">M7-$A7 + IF(M7-$A7&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="O7">
+        <v>11</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7" si="36">O7-$A7 + IF(O7-$A7&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7" si="37">Q7-$A7 + IF(Q7-$A7&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7" si="38">S7-$A7 + IF(S7-$A7&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" ref="V7" si="39">U7-$A7 + IF(U7-$A7&lt;0, 120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W7">
+        <v>11</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" ref="X7" si="40">W7-$A7 + IF(W7-$A7&lt;0, 120,0)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8" si="41">E8-$A8 + IF(E8-$A8&lt;0, 120,0)</f>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8" si="42">G8-$A8 + IF(G8-$A8&lt;0, 120,0)</f>
+        <v>64</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8" si="43">I8-$A8 + IF(I8-$A8&lt;0, 120,0)</f>
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8" si="44">K8-$A8 + IF(K8-$A8&lt;0, 120,0)</f>
+        <v>63</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8" si="45">M8-$A8 + IF(M8-$A8&lt;0, 120,0)</f>
+        <v>61</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8" si="46">O8-$A8 + IF(O8-$A8&lt;0, 120,0)</f>
+        <v>62</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8" si="47">Q8-$A8 + IF(Q8-$A8&lt;0, 120,0)</f>
+        <v>61</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" ref="T8" si="48">S8-$A8 + IF(S8-$A8&lt;0, 120,0)</f>
+        <v>62</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" ref="V8" si="49">U8-$A8 + IF(U8-$A8&lt;0, 120,0)</f>
+        <v>60</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" ref="X8" si="50">W8-$A8 + IF(W8-$A8&lt;0, 120,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9" si="51">E9-$A9 + IF(E9-$A9&lt;0, 120,0)</f>
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9" si="52">G9-$A9 + IF(G9-$A9&lt;0, 120,0)</f>
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ref="J9" si="53">I9-$A9 + IF(I9-$A9&lt;0, 120,0)</f>
+        <v>82</v>
+      </c>
+      <c r="K9">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9" si="54">K9-$A9 + IF(K9-$A9&lt;0, 120,0)</f>
+        <v>79</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9" si="55">M9-$A9 + IF(M9-$A9&lt;0, 120,0)</f>
+        <v>77</v>
+      </c>
+      <c r="O9">
+        <v>16</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ref="P9" si="56">O9-$A9 + IF(O9-$A9&lt;0, 120,0)</f>
+        <v>76</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" ref="R9" si="57">Q9-$A9 + IF(Q9-$A9&lt;0, 120,0)</f>
+        <v>76</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" ref="T9" si="58">S9-$A9 + IF(S9-$A9&lt;0, 120,0)</f>
+        <v>75</v>
+      </c>
+      <c r="U9">
+        <v>15</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9" si="59">U9-$A9 + IF(U9-$A9&lt;0, 120,0)</f>
+        <v>75</v>
+      </c>
+      <c r="W9">
+        <v>15</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" ref="X9" si="60">W9-$A9 + IF(W9-$A9&lt;0, 120,0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>87</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10" si="61">E10-$A10 + IF(E10-$A10&lt;0, 120,0)</f>
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10" si="62">G10-$A10 + IF(G10-$A10&lt;0, 120,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>87</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10" si="63">I10-$A10 + IF(I10-$A10&lt;0, 120,0)</f>
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>86</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="64">K10-$A10 + IF(K10-$A10&lt;0, 120,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>85</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10" si="65">M10-$A10 + IF(M10-$A10&lt;0, 120,0)</f>
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <v>83</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" ref="P10" si="66">O10-$A10 + IF(O10-$A10&lt;0, 120,0)</f>
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <v>84</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10" si="67">Q10-$A10 + IF(Q10-$A10&lt;0, 120,0)</f>
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <v>80</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" ref="T10" si="68">S10-$A10 + IF(S10-$A10&lt;0, 120,0)</f>
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>81</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" ref="V10" si="69">U10-$A10 + IF(U10-$A10&lt;0, 120,0)</f>
+        <v>21</v>
+      </c>
+      <c r="W10">
+        <v>81</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" ref="X10" si="70">W10-$A10 + IF(W10-$A10&lt;0, 120,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(B3)-2, ",-1,'P1-OPT',3,0,120,",B3,",'2018-9-20 ",TEXT(B$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(B$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="str">
+        <f t="shared" ref="B18:D24" si="71">CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(B4)-2, ",-1,'P1-OPT',3,0,120,",B4,",'2018-9-20 ",TEXT(B$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(B$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="str">
+        <f t="shared" si="71"/>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="str">
+        <f t="shared" si="71"/>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="str">
+        <f t="shared" si="71"/>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="str">
+        <f t="shared" si="71"/>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="str">
+        <f t="shared" si="71"/>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="str">
+        <f t="shared" si="71"/>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:00:00','2018-9-20 00:05:00');</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D3)-2, ",-1,'P1-OPT',3,0,120,",D3,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,22,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D4)-2, ",-1,'P1-OPT',3,0,120,",D4,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D5)-2, ",-1,'P1-OPT',3,0,120,",D5,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,1,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D6)-2, ",-1,'P1-OPT',3,0,120,",D6,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,10,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D7)-2, ",-1,'P1-OPT',3,0,120,",D7,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,35,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D8)-2, ",-1,'P1-OPT',3,0,120,",D8,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,67,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D9)-2, ",-1,'P1-OPT',3,0,120,",D9,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,81,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(D10)-2, ",-1,'P1-OPT',3,0,120,",D10,",'2018-9-20 ",TEXT(D$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(D$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,32,'2018-9-20 00:05:00','2018-9-20 00:10:00');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F3)-2, ",-1,'P1-OPT',3,0,120,",F3,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,22,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F4)-2, ",-1,'P1-OPT',3,0,120,",F4,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F5)-2, ",-1,'P1-OPT',3,0,120,",F5,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,117,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F6)-2, ",-1,'P1-OPT',3,0,120,",F6,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,18,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F7)-2, ",-1,'P1-OPT',3,0,120,",F7,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,37,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F8)-2, ",-1,'P1-OPT',3,0,120,",F8,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,65,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F9)-2, ",-1,'P1-OPT',3,0,120,",F9,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,80,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(F10)-2, ",-1,'P1-OPT',3,0,120,",F10,",'2018-9-20 ",TEXT(F$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(F$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,27,'2018-9-20 00:10:00','2018-9-20 00:15:00');</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H3)-2, ",-1,'P1-OPT',3,0,120,",H3,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,21,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H4)-2, ",-1,'P1-OPT',3,0,120,",H4,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H5)-2, ",-1,'P1-OPT',3,0,120,",H5,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,114,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H6)-2, ",-1,'P1-OPT',3,0,120,",H6,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,12,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H7)-2, ",-1,'P1-OPT',3,0,120,",H7,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,38,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H8)-2, ",-1,'P1-OPT',3,0,120,",H8,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,64,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H9)-2, ",-1,'P1-OPT',3,0,120,",H9,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,78,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(H10)-2, ",-1,'P1-OPT',3,0,120,",H10,",'2018-9-20 ",TEXT(H$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(H$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,23,'2018-9-20 00:15:00','2018-9-20 00:20:00');</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J3)-2, ",-1,'P1-OPT',3,0,120,",J3,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,21,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J4)-2, ",-1,'P1-OPT',3,0,120,",J4,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J5)-2, ",-1,'P1-OPT',3,0,120,",J5,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,113,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J6)-2, ",-1,'P1-OPT',3,0,120,",J6,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,12,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J7)-2, ",-1,'P1-OPT',3,0,120,",J7,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J8)-2, ",-1,'P1-OPT',3,0,120,",J8,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,66,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J9)-2, ",-1,'P1-OPT',3,0,120,",J9,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,82,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(J10)-2, ",-1,'P1-OPT',3,0,120,",J10,",'2018-9-20 ",TEXT(J$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(J$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,27,'2018-9-20 00:20:00','2018-9-20 00:25:00');</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L3)-2, ",-1,'P1-OPT',3,0,120,",L3,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,17,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L4)-2, ",-1,'P1-OPT',3,0,120,",L4,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L5)-2, ",-1,'P1-OPT',3,0,120,",L5,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,90,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L6)-2, ",-1,'P1-OPT',3,0,120,",L6,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,16,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L7)-2, ",-1,'P1-OPT',3,0,120,",L7,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L8)-2, ",-1,'P1-OPT',3,0,120,",L8,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,63,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L9)-2, ",-1,'P1-OPT',3,0,120,",L9,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,79,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(L10)-2, ",-1,'P1-OPT',3,0,120,",L10,",'2018-9-20 ",TEXT(L$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(L$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,26,'2018-9-20 00:25:00','2018-9-20 00:30:00');</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N3)-2, ",-1,'P1-OPT',3,0,120,",N3,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,17,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N4)-2, ",-1,'P1-OPT',3,0,120,",N4,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N5)-2, ",-1,'P1-OPT',3,0,120,",N5,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,92,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N6)-2, ",-1,'P1-OPT',3,0,120,",N6,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,17,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N7)-2, ",-1,'P1-OPT',3,0,120,",N7,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N8)-2, ",-1,'P1-OPT',3,0,120,",N8,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,61,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N9)-2, ",-1,'P1-OPT',3,0,120,",N9,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,77,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(N10)-2, ",-1,'P1-OPT',3,0,120,",N10,",'2018-9-20 ",TEXT(N$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(N$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,25,'2018-9-20 00:30:00','2018-9-20 00:35:00');</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P3)-2, ",-1,'P1-OPT',3,0,120,",P3,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,18,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P4)-2, ",-1,'P1-OPT',3,0,120,",P4,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P5)-2, ",-1,'P1-OPT',3,0,120,",P5,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,93,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P6)-2, ",-1,'P1-OPT',3,0,120,",P6,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,12,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P7)-2, ",-1,'P1-OPT',3,0,120,",P7,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P8)-2, ",-1,'P1-OPT',3,0,120,",P8,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,62,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P9)-2, ",-1,'P1-OPT',3,0,120,",P9,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,76,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(P10)-2, ",-1,'P1-OPT',3,0,120,",P10,",'2018-9-20 ",TEXT(P$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(P$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,23,'2018-9-20 00:35:00','2018-9-20 00:40:00');</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R3)-2, ",-1,'P1-OPT',3,0,120,",R3,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,22,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R4)-2, ",-1,'P1-OPT',3,0,120,",R4,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R5)-2, ",-1,'P1-OPT',3,0,120,",R5,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,2,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R6)-2, ",-1,'P1-OPT',3,0,120,",R6,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,14,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R7)-2, ",-1,'P1-OPT',3,0,120,",R7,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R8)-2, ",-1,'P1-OPT',3,0,120,",R8,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,61,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R9)-2, ",-1,'P1-OPT',3,0,120,",R9,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,76,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(R10)-2, ",-1,'P1-OPT',3,0,120,",R10,",'2018-9-20 ",TEXT(R$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(R$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,24,'2018-9-20 00:40:00','2018-9-20 00:45:00');</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T3)-2, ",-1,'P1-OPT',3,0,120,",T3,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,26,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T4)-2, ",-1,'P1-OPT',3,0,120,",T4,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T5)-2, ",-1,'P1-OPT',3,0,120,",T5,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,0,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T6)-2, ",-1,'P1-OPT',3,0,120,",T6,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,15,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T7)-2, ",-1,'P1-OPT',3,0,120,",T7,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T8)-2, ",-1,'P1-OPT',3,0,120,",T8,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,62,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T9)-2, ",-1,'P1-OPT',3,0,120,",T9,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,75,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(T10)-2, ",-1,'P1-OPT',3,0,120,",T10,",'2018-9-20 ",TEXT(T$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(T$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,20,'2018-9-20 00:45:00','2018-9-20 00:50:00');</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V3)-2, ",-1,'P1-OPT',3,0,120,",V3,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,23,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V4)-2, ",-1,'P1-OPT',3,0,120,",V4,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V5)-2, ",-1,'P1-OPT',3,0,120,",V5,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,1,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V6)-2, ",-1,'P1-OPT',3,0,120,",V6,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,18,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V7)-2, ",-1,'P1-OPT',3,0,120,",V7,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V8)-2, ",-1,'P1-OPT',3,0,120,",V8,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,60,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V9)-2, ",-1,'P1-OPT',3,0,120,",V9,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,75,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(V10)-2, ",-1,'P1-OPT',3,0,120,",V10,",'2018-9-20 ",TEXT(V$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(V$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,21,'2018-9-20 00:50:00','2018-9-20 00:55:00');</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X3)-2, ",-1,'P1-OPT',3,0,120,",X3,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (1,-1,'P1-OPT',3,0,120,25,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X4)-2, ",-1,'P1-OPT',3,0,120,",X4,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (2,-1,'P1-OPT',3,0,120,70,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X5)-2, ",-1,'P1-OPT',3,0,120,",X5,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (3,-1,'P1-OPT',3,0,120,116,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X6)-2, ",-1,'P1-OPT',3,0,120,",X6,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (4,-1,'P1-OPT',3,0,120,13,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X7)-2, ",-1,'P1-OPT',3,0,120,",X7,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (5,-1,'P1-OPT',3,0,120,71,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X8)-2, ",-1,'P1-OPT',3,0,120,",X8,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (6,-1,'P1-OPT',3,0,120,60,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X9)-2, ",-1,'P1-OPT',3,0,120,",X9,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (7,-1,'P1-OPT',3,0,120,75,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (", ROW(X10)-2, ",-1,'P1-OPT',3,0,120,",X10,",'2018-9-20 ",TEXT(X$1,"HH:MM:SS"),"','2018-9-20 ",TEXT(X$2,"HH:MM:SS"),"');")</f>
+        <v>INSERT INTO sprg_fore (ctrl, idno, name, type, gtyp, cycl, offs,fdat,ldat) VALUES (8,-1,'P1-OPT',3,0,120,21,'2018-9-20 00:55:00','2018-9-20 01:00:00');</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
